--- a/data/scheduling_DNN/predict/0.9/result7.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result7.xlsx
@@ -570,10 +570,10 @@
         <v>1.533943176269531</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.4023414552211761</v>
       </c>
       <c r="W2" t="n">
-        <v>1.058683633804321</v>
+        <v>1.280522346496582</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8980898857116699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8882633447647095</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1885432451963425</v>
+        <v>9.656090696807951e-05</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9120159149169922</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4003833532333374</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1128938123583794</v>
+        <v>0.2617678642272949</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9663500785827637</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4009927809238434</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2127430438995361</v>
+        <v>0.319628894329071</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>1.027582168579102</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5231558680534363</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2883384525775909</v>
+        <v>0.254445880651474</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.9149379730224609</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.400025874376297</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1691916733980179</v>
+        <v>0.2651345133781433</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9395229816436768</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8717252612113953</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3032978177070618</v>
+        <v>0.004596530925482512</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8949239253997803</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.522600531578064</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2279212325811386</v>
+        <v>0.1386247128248215</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>1.169718027114868</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5170106291770935</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2666506469249725</v>
+        <v>0.4260269403457642</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>1.052884101867676</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8702245354652405</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3014810681343079</v>
+        <v>0.03336451575160027</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9132480621337891</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5246292948722839</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01237026043236256</v>
+        <v>0.1510245501995087</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9954349994659424</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.399234265089035</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2548081278800964</v>
+        <v>0.3554552793502808</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8828930854797363</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.402262270450592</v>
       </c>
       <c r="W14" t="n">
-        <v>0.2543321251869202</v>
+        <v>0.2310059815645218</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9147679805755615</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.4003377854824066</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1985345333814621</v>
+        <v>0.2646383941173553</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8727419376373291</v>
       </c>
       <c r="V16" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5208404064178467</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04771340265870094</v>
+        <v>0.1238346844911575</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9279849529266357</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5321084856987</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1236889511346817</v>
+        <v>0.1567181795835495</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8683798313140869</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5150142908096313</v>
       </c>
       <c r="W18" t="n">
-        <v>0.03081449121236801</v>
+        <v>0.124867208302021</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8622329235076904</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.8704590201377869</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2616155445575714</v>
+        <v>6.766866863472387e-05</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8987619876861572</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8704065680503845</v>
       </c>
       <c r="W20" t="n">
-        <v>0.004229797516018152</v>
+        <v>0.0008040298125706613</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8973128795623779</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.4003347158432007</v>
       </c>
       <c r="W21" t="n">
-        <v>0.276229053735733</v>
+        <v>0.2469872981309891</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5316481590270996</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8697575926780701</v>
       </c>
       <c r="W22" t="n">
-        <v>0.003073118627071381</v>
+        <v>0.1143179908394814</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5390350818634033</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8703348636627197</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01476051565259695</v>
+        <v>0.109759546816349</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5233860015869141</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.5055757761001587</v>
       </c>
       <c r="W24" t="n">
-        <v>0.00277041969820857</v>
+        <v>0.0003172041324432939</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.525547981262207</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8654636740684509</v>
       </c>
       <c r="W25" t="n">
-        <v>1.291861735808197e-06</v>
+        <v>0.1155426800251007</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6153900623321533</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.400976836681366</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03909212350845337</v>
+        <v>0.0459730327129364</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5191471576690674</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5264747738838196</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08150408416986465</v>
+        <v>5.3693958761869e-05</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5166261196136475</v>
       </c>
       <c r="V28" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.400895893573761</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02750994451344013</v>
+        <v>0.01339348498731852</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5253958702087402</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.8722689747810364</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01650481671094894</v>
+        <v>0.1203209534287453</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5260128974914551</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.4009700119495392</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02180491574108601</v>
+        <v>0.01563572324812412</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5728950500488281</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.4003523290157318</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0407557524740696</v>
+        <v>0.0297709908336401</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.548659086227417</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8693594336509705</v>
       </c>
       <c r="W32" t="n">
-        <v>0.0007585418061353266</v>
+        <v>0.1028487160801888</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V33" t="n">
-        <v>0.802345335483551</v>
+        <v>0.4003599584102631</v>
       </c>
       <c r="W33" t="n">
-        <v>0.08131466805934906</v>
+        <v>0.01364880800247192</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5242109298706055</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8874883055686951</v>
       </c>
       <c r="W34" t="n">
-        <v>0.0167302992194891</v>
+        <v>0.1319704502820969</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184760093688965</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5680544376373291</v>
       </c>
       <c r="W35" t="n">
-        <v>0.004056887701153755</v>
+        <v>0.002458020579069853</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5693509578704834</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8977068662643433</v>
       </c>
       <c r="W36" t="n">
-        <v>0.04778647050261497</v>
+        <v>0.107817605137825</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5175681114196777</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.39920973777771</v>
       </c>
       <c r="W37" t="n">
-        <v>0.002888515591621399</v>
+        <v>0.01400870457291603</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.537492036819458</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.528034508228302</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02742426842451096</v>
+        <v>8.944484579842538e-05</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5170531272888184</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5245009660720825</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02765802852809429</v>
+        <v>5.547030377783813e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5142741203308105</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.5162458419799805</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1022781506180763</v>
+        <v>3.887686034431681e-06</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5149941444396973</v>
       </c>
       <c r="V41" t="n">
-        <v>0.654336154460907</v>
+        <v>0.8638210892677307</v>
       </c>
       <c r="W41" t="n">
-        <v>0.01941619627177715</v>
+        <v>0.1216802373528481</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3989667892456055</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.4000264108181</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06472573429346085</v>
+        <v>1.122797925745544e-06</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.416985034942627</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8844667077064514</v>
       </c>
       <c r="W43" t="n">
-        <v>0.3120810389518738</v>
+        <v>0.2185391187667847</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.389503002166748</v>
       </c>
       <c r="V44" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5316306352615356</v>
       </c>
       <c r="W44" t="n">
-        <v>0.09592672437429428</v>
+        <v>0.02020026370882988</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.391016960144043</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8774315714836121</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001534080831333995</v>
+        <v>0.2365991771221161</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3963840007781982</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.3992519080638885</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1942679136991501</v>
+        <v>8.224892553698737e-06</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3975908756256104</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5216458439826965</v>
       </c>
       <c r="W47" t="n">
-        <v>0.008490941487252712</v>
+        <v>0.0153896352276206</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.402508020401001</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5241246819496155</v>
       </c>
       <c r="W48" t="n">
-        <v>0.002602389315143228</v>
+        <v>0.01479061227291822</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.389617919921875</v>
       </c>
       <c r="V49" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.5161334872245789</v>
       </c>
       <c r="W49" t="n">
-        <v>0.00550658255815506</v>
+        <v>0.01600618846714497</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3887062072753906</v>
       </c>
       <c r="V50" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4003266394138336</v>
       </c>
       <c r="W50" t="n">
-        <v>0.3444947600364685</v>
+        <v>0.0001350344391539693</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.4746830463409424</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5204913020133972</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01160177867859602</v>
+        <v>0.002098396187648177</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3975591659545898</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8628124594688416</v>
       </c>
       <c r="W52" t="n">
-        <v>0.00434586638584733</v>
+        <v>0.2164606302976608</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3944377899169922</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.4000393450260162</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08519008010625839</v>
+        <v>3.137741805403493e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3912239074707031</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3992443680763245</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1709853708744049</v>
+        <v>6.432778900489211e-05</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3905239105224609</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.4000122547149658</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06916210800409317</v>
+        <v>9.002867591334507e-05</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3893418312072754</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5277832746505737</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03720581158995628</v>
+        <v>0.01916603371500969</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3903648853302002</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4010089933872223</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0007399428868666291</v>
+        <v>0.0001132970355683938</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3899099826812744</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.8875561356544495</v>
       </c>
       <c r="W58" t="n">
-        <v>0.005117400083690882</v>
+        <v>0.2476516962051392</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3862488269805908</v>
       </c>
       <c r="V59" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5202289819717407</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1745021641254425</v>
+        <v>0.01795068196952343</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.4112091064453125</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.3992274403572083</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01290022395551205</v>
+        <v>0.0001435603189747781</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3894948959350586</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.400353729724884</v>
       </c>
       <c r="W61" t="n">
-        <v>0.2017327547073364</v>
+        <v>0.0001179142709588632</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.148676872253418</v>
       </c>
       <c r="V62" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.878257155418396</v>
       </c>
       <c r="W62" t="n">
-        <v>0.6033505201339722</v>
+        <v>0.07312682271003723</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8699791431427002</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8670953512191772</v>
       </c>
       <c r="W63" t="n">
-        <v>0.004470214247703552</v>
+        <v>8.316255843965337e-06</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9214279651641846</v>
       </c>
       <c r="V64" t="n">
-        <v>0.802417516708374</v>
+        <v>0.5203788876533508</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01416348665952682</v>
+        <v>0.1608403623104095</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8724958896636963</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.4000257551670074</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2068827301263809</v>
+        <v>0.2232280224561691</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.866657018661499</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.874396026134491</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1158214285969734</v>
+        <v>5.989223791402765e-05</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.86651611328125</v>
       </c>
       <c r="V67" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4018612802028656</v>
       </c>
       <c r="W67" t="n">
-        <v>0.00436787074431777</v>
+        <v>0.2159041166305542</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9416589736938477</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4008910357952118</v>
       </c>
       <c r="W68" t="n">
-        <v>0.3166915774345398</v>
+        <v>0.2924299240112305</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8710658550262451</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.3992511928081512</v>
       </c>
       <c r="W69" t="n">
-        <v>0.08697926253080368</v>
+        <v>0.2226090729236603</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8649971485137939</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4022462666034698</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1299373656511307</v>
+        <v>0.2141383737325668</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8691041469573975</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4003390967845917</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1185626238584518</v>
+        <v>0.2197406738996506</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9233388900756836</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5235016345977783</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1760571599006653</v>
+        <v>0.1598698347806931</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8746638298034668</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.3997509777545929</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2736825942993164</v>
+        <v>0.2255422174930573</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.86319899559021</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5245084166526794</v>
       </c>
       <c r="W74" t="n">
-        <v>0.003702094312757254</v>
+        <v>0.114711306989193</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.874953031539917</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3999367654323578</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1479166895151138</v>
+        <v>0.2256404459476471</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9410128593444824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8747724294662476</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1603278368711472</v>
+        <v>0.004387794528156519</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.3999317586421967</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1359260380268097</v>
+        <v>0.2245294600725174</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8663449287414551</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5135818719863892</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04517567157745361</v>
+        <v>0.1244417726993561</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8819448947906494</v>
       </c>
       <c r="V79" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.8898807168006897</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1424123495817184</v>
+        <v>6.297726940829307e-05</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9179439544677734</v>
       </c>
       <c r="V80" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.3992580771446228</v>
       </c>
       <c r="W80" t="n">
-        <v>0.007015401963144541</v>
+        <v>0.2690350413322449</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8630130290985107</v>
       </c>
       <c r="V81" t="n">
-        <v>0.838257908821106</v>
+        <v>0.5214337110519409</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0006128159584477544</v>
+        <v>0.116676427423954</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5750439167022705</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5158473253250122</v>
       </c>
       <c r="W82" t="n">
-        <v>0.002383574610576034</v>
+        <v>0.003504236461594701</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5325441360473633</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.3997721374034882</v>
       </c>
       <c r="W83" t="n">
-        <v>0.02343085408210754</v>
+        <v>0.01762840338051319</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5314269065856934</v>
       </c>
       <c r="V84" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5084695816040039</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01294442173093557</v>
+        <v>0.0005270387628115714</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5200700759887695</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8758726119995117</v>
       </c>
       <c r="W85" t="n">
-        <v>0.003201833460479975</v>
+        <v>0.1265954375267029</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5169711112976074</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.3992407321929932</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0006896511767990887</v>
+        <v>0.01386044174432755</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5149509906768799</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.4019071161746979</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0269534420222044</v>
+        <v>0.01277891732752323</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5150988101959229</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8678469061851501</v>
       </c>
       <c r="W88" t="n">
-        <v>0.006339980755001307</v>
+        <v>0.1244312226772308</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5172140598297119</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8757526278495789</v>
       </c>
       <c r="W89" t="n">
-        <v>0.003147729439660907</v>
+        <v>0.1285499036312103</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5482549667358398</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5153554081916809</v>
       </c>
       <c r="W90" t="n">
-        <v>0.1830150336027145</v>
+        <v>0.001082381000742316</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5184290409088135</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.5275454521179199</v>
       </c>
       <c r="W91" t="n">
-        <v>0.02810598723590374</v>
+        <v>8.310895645990968e-05</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.516981840133667</v>
       </c>
       <c r="V92" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.8645456433296204</v>
       </c>
       <c r="W92" t="n">
-        <v>0.2103250473737717</v>
+        <v>0.1208005994558334</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5209181308746338</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5195989012718201</v>
       </c>
       <c r="W93" t="n">
-        <v>0.0009116802830249071</v>
+        <v>1.740366769809043e-06</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5173120498657227</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5224323272705078</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0007041744538582861</v>
+        <v>2.621723979245871e-05</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5817880630493164</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8754581809043884</v>
       </c>
       <c r="W95" t="n">
-        <v>0.005202293395996094</v>
+        <v>0.08624213933944702</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5193848609924316</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8695454597473145</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003086508717387915</v>
+        <v>0.1226124465465546</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5212528705596924</v>
       </c>
       <c r="V97" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5227315425872803</v>
       </c>
       <c r="W97" t="n">
-        <v>0.000953720067627728</v>
+        <v>2.186470965170884e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.518949031829834</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8681154847145081</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01844999566674232</v>
+        <v>0.1219172105193138</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5210399627685547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8681259751319885</v>
       </c>
       <c r="W99" t="n">
-        <v>2.141013465006836e-05</v>
+        <v>0.1204686984419823</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203490257263184</v>
       </c>
       <c r="V100" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5098834037780762</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0807797759771347</v>
+        <v>0.0001095292391255498</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5205750465393066</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8875203728675842</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02962425909936428</v>
+        <v>0.1346488744020462</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4002079963684082</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.5228349566459656</v>
       </c>
       <c r="W102" t="n">
-        <v>0.0003007822087965906</v>
+        <v>0.01503737177699804</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4022829532623291</v>
       </c>
       <c r="V103" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.863973081111908</v>
       </c>
       <c r="W103" t="n">
-        <v>0.1582295894622803</v>
+        <v>0.2131577730178833</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4003362059593201</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01740489341318607</v>
+        <v>5.5492502724519e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4001638889312744</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.3998192548751831</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06411944329738617</v>
+        <v>1.187726326179472e-07</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3876640796661377</v>
       </c>
       <c r="V106" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.400352269411087</v>
       </c>
       <c r="W106" t="n">
-        <v>0.001294748159125447</v>
+        <v>0.0001609901519259438</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3897330760955811</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5329759120941162</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0007785087218508124</v>
+        <v>0.02051850967109203</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3909368515014648</v>
       </c>
       <c r="V108" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.399820476770401</v>
       </c>
       <c r="W108" t="n">
-        <v>0.202964648604393</v>
+        <v>7.891879795351997e-05</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3894879817962646</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.399223655462265</v>
       </c>
       <c r="W109" t="n">
-        <v>0.1708876341581345</v>
+        <v>9.47833395912312e-05</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3887388706207275</v>
       </c>
       <c r="V110" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5247780680656433</v>
       </c>
       <c r="W110" t="n">
-        <v>0.096406489610672</v>
+        <v>0.01850666292011738</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.394212007522583</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8729178309440613</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0005484254797920585</v>
+        <v>0.2291592657566071</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4121630191802979</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5207505822181702</v>
       </c>
       <c r="W112" t="n">
-        <v>0.01263777911663055</v>
+        <v>0.01179125905036926</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3938138484954834</v>
       </c>
       <c r="V113" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.8901564478874207</v>
       </c>
       <c r="W113" t="n">
-        <v>0.3380010426044464</v>
+        <v>0.2463559806346893</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.396996021270752</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5243185758590698</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01625754125416279</v>
+        <v>0.01621103286743164</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3917551040649414</v>
       </c>
       <c r="V115" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5208296179771423</v>
       </c>
       <c r="W115" t="n">
-        <v>0.3408508598804474</v>
+        <v>0.01666023023426533</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.391571044921875</v>
       </c>
       <c r="V116" t="n">
-        <v>0.417632520198822</v>
+        <v>0.527626097202301</v>
       </c>
       <c r="W116" t="n">
-        <v>0.0006792005151510239</v>
+        <v>0.018510976806283</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3921539783477783</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3992667198181152</v>
       </c>
       <c r="W117" t="n">
-        <v>0.01230162288993597</v>
+        <v>5.059109025751241e-05</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4153850078582764</v>
       </c>
       <c r="V118" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5140605568885803</v>
       </c>
       <c r="W118" t="n">
-        <v>0.0119370361790061</v>
+        <v>0.009736863896250725</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3929860591888428</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.399821013212204</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03596293926239014</v>
+        <v>4.671659553423524e-05</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3940401077270508</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8741729259490967</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1666529476642609</v>
+        <v>0.2305275201797485</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932180404663086</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.4003663659095764</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01733821257948875</v>
+        <v>5.109855555929244e-05</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8687918186187744</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8786635994911194</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2722285687923431</v>
+        <v>9.745205898070708e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8998880386352539</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.5244947075843811</v>
       </c>
       <c r="W123" t="n">
-        <v>0.06054995954036713</v>
+        <v>0.1409201472997665</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8713300228118896</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5669149160385132</v>
       </c>
       <c r="W124" t="n">
-        <v>0.07866332679986954</v>
+        <v>0.0926685556769371</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8762388229370117</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.4009222388267517</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09036866575479507</v>
+        <v>0.2259258478879929</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8768019676208496</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.4019726812839508</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2109697759151459</v>
+        <v>0.2254628539085388</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8773062229156494</v>
       </c>
       <c r="V127" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.3997531831264496</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2553316354751587</v>
+        <v>0.2280569076538086</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8693480491638184</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5136845707893372</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2040390521287918</v>
+        <v>0.1264965087175369</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8671379089355469</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5288217067718506</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2020561397075653</v>
+        <v>0.1144578531384468</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8761179447174072</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8818568587303162</v>
       </c>
       <c r="W130" t="n">
-        <v>0.2482508718967438</v>
+        <v>3.293513509561308e-05</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.86661696434021</v>
       </c>
       <c r="V131" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4003563821315765</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2661182582378387</v>
+        <v>0.217398926615715</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8735339641571045</v>
       </c>
       <c r="V132" t="n">
-        <v>0.417663037776947</v>
+        <v>0.5321987867355347</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2078182995319366</v>
+        <v>0.1165097057819366</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8853759765625</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.8675127625465393</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1293183863162994</v>
+        <v>0.0003190944262314588</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8667550086975098</v>
       </c>
       <c r="V134" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8738383650779724</v>
       </c>
       <c r="W134" t="n">
-        <v>0.01183160301297903</v>
+        <v>5.017393777961843e-05</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9346470832824707</v>
       </c>
       <c r="V135" t="n">
-        <v>0.800457239151001</v>
+        <v>0.400924414396286</v>
       </c>
       <c r="W135" t="n">
-        <v>0.01800691336393356</v>
+        <v>0.2848598659038544</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8702070713043213</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.4003653824329376</v>
       </c>
       <c r="W136" t="n">
-        <v>0.04699506983160973</v>
+        <v>0.2207512110471725</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.874222993850708</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5454307198524475</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1478642672300339</v>
+        <v>0.1081043630838394</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8667788505554199</v>
       </c>
       <c r="V138" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8689725995063782</v>
       </c>
       <c r="W138" t="n">
-        <v>0.04545732960104942</v>
+        <v>4.812534371012589e-06</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.9381630420684814</v>
       </c>
       <c r="V139" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5028780102729797</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05502745881676674</v>
+        <v>0.1894730627536774</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8753669261932373</v>
       </c>
       <c r="V140" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.4003706276416779</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2752190232276917</v>
+        <v>0.2256214767694473</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8740010261535645</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8726236820220947</v>
       </c>
       <c r="W141" t="n">
-        <v>0.03286756575107574</v>
+        <v>1.897076799650677e-06</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5412149429321289</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.3992307484149933</v>
       </c>
       <c r="W142" t="n">
-        <v>0.0002596109407022595</v>
+        <v>0.02015951089560986</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5235650539398193</v>
       </c>
       <c r="V143" t="n">
-        <v>0.590633749961853</v>
+        <v>0.5245038270950317</v>
       </c>
       <c r="W143" t="n">
-        <v>0.004498209804296494</v>
+        <v>8.812950227365945e-07</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5222420692443848</v>
       </c>
       <c r="V144" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.399234801530838</v>
       </c>
       <c r="W144" t="n">
-        <v>0.01675348170101643</v>
+        <v>0.01513078808784485</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5218429565429688</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4009138643741608</v>
       </c>
       <c r="W145" t="n">
-        <v>0.003686063922941685</v>
+        <v>0.0146238449960947</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5231330394744873</v>
       </c>
       <c r="V146" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.3992564082145691</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01674717105925083</v>
+        <v>0.01534541975706816</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5505208969116211</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5247772932052612</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002099931007251143</v>
+        <v>0.0006627331604249775</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5306670665740967</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8871395587921143</v>
       </c>
       <c r="W148" t="n">
-        <v>0.0323638990521431</v>
+        <v>0.1270726323127747</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5736639499664307</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4009685516357422</v>
       </c>
       <c r="W149" t="n">
-        <v>0.006868006195873022</v>
+        <v>0.02982369996607304</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5320158004760742</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8717151880264282</v>
       </c>
       <c r="W150" t="n">
-        <v>0.002903809770941734</v>
+        <v>0.1153956726193428</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5210921764373779</v>
       </c>
       <c r="V151" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5210866928100586</v>
       </c>
       <c r="W151" t="n">
-        <v>0.003555730683729053</v>
+        <v>3.007016857736744e-11</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5172209739685059</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8871886134147644</v>
       </c>
       <c r="W152" t="n">
-        <v>0.002886958885937929</v>
+        <v>0.1368760615587234</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5192840099334717</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8818046450614929</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0002245920622954145</v>
+        <v>0.1314212083816528</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5420777797698975</v>
       </c>
       <c r="V154" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.8897243738174438</v>
       </c>
       <c r="W154" t="n">
-        <v>0.08520291745662689</v>
+        <v>0.1208581551909447</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5242021083831787</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.40036541223526</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02338760904967785</v>
+        <v>0.01533552724868059</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.52451491355896</v>
       </c>
       <c r="V156" t="n">
-        <v>0.405481219291687</v>
+        <v>0.3992494642734528</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01416902057826519</v>
+        <v>0.01569143310189247</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.571666955947876</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8784045577049255</v>
       </c>
       <c r="W157" t="n">
-        <v>2.160695112252142e-05</v>
+        <v>0.09408795833587646</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5241310596466064</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5284518599510193</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0003577613388188183</v>
+        <v>1.866931597760413e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5217080116271973</v>
       </c>
       <c r="V159" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5179145336151123</v>
       </c>
       <c r="W159" t="n">
-        <v>0.09482844173908234</v>
+        <v>1.439047537132865e-05</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5251271724700928</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5242233276367188</v>
       </c>
       <c r="W160" t="n">
-        <v>0.09275312721729279</v>
+        <v>8.169354828169162e-07</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5218539237976074</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.4020045101642609</v>
       </c>
       <c r="W161" t="n">
-        <v>0.003370429622009397</v>
+        <v>0.01436388213187456</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3973138332366943</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.3992326557636261</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004121263045817614</v>
+        <v>3.681879888972617e-06</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.4021990299224854</v>
       </c>
       <c r="V163" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5235048532485962</v>
       </c>
       <c r="W163" t="n">
-        <v>0.1585957854986191</v>
+        <v>0.01471510250121355</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3928890228271484</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5322566628456116</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0006136100855655968</v>
+        <v>0.01942333951592445</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.39375901222229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.567980170249939</v>
       </c>
       <c r="W165" t="n">
-        <v>0.0002407596039120108</v>
+        <v>0.0303530115634203</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3928210735321045</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.881604790687561</v>
       </c>
       <c r="W166" t="n">
-        <v>0.009409324266016483</v>
+        <v>0.2389095276594162</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3963360786437988</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.8749383687973022</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03469482436776161</v>
+        <v>0.2290601581335068</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3914539813995361</v>
       </c>
       <c r="V168" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8651015162467957</v>
       </c>
       <c r="W168" t="n">
-        <v>0.001965392148122191</v>
+        <v>0.2243419885635376</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3949759006500244</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8846821188926697</v>
       </c>
       <c r="W169" t="n">
-        <v>0.00912325456738472</v>
+        <v>0.2398121803998947</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.395698070526123</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4003892540931702</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004595948848873377</v>
+        <v>2.200720336986706e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3914849758148193</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5229371786117554</v>
       </c>
       <c r="W171" t="n">
-        <v>0.06872545927762985</v>
+        <v>0.01727968081831932</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3960590362548828</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.3992492258548737</v>
       </c>
       <c r="W172" t="n">
-        <v>0.03245401382446289</v>
+        <v>1.017730937746819e-05</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3936629295349121</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.506919801235199</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01242335140705109</v>
+        <v>0.01282711885869503</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4216320514678955</v>
       </c>
       <c r="V174" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5284077525138855</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0794992595911026</v>
+        <v>0.01140105072408915</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930389881134033</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.4000206589698792</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001789124915376306</v>
+        <v>4.874372825725004e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3976650238037109</v>
       </c>
       <c r="V176" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5204471945762634</v>
       </c>
       <c r="W176" t="n">
-        <v>0.3341639339923859</v>
+        <v>0.01507546100765467</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4102790355682373</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8687355518341064</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01334616541862488</v>
+        <v>0.2101823836565018</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3963561058044434</v>
       </c>
       <c r="V178" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.401927262544632</v>
       </c>
       <c r="W178" t="n">
-        <v>0.3354885578155518</v>
+        <v>3.103778726654127e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3977768421173096</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.5179522633552551</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0003940491587854922</v>
+        <v>0.01444213185459375</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3955609798431396</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.5268148183822632</v>
       </c>
       <c r="W180" t="n">
-        <v>0.01674686372280121</v>
+        <v>0.01722756959497929</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4182510375976562</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.888252317905426</v>
       </c>
       <c r="W181" t="n">
-        <v>0.05590356513857841</v>
+        <v>0.2209012061357498</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8804221153259277</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4006706178188324</v>
       </c>
       <c r="W182" t="n">
-        <v>0.09255011379718781</v>
+        <v>0.2301615029573441</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9244890213012695</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4001525044441223</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1764250546693802</v>
+        <v>0.2749287784099579</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8728549480438232</v>
       </c>
       <c r="V184" t="n">
-        <v>0.417652815580368</v>
+        <v>0.399753749370575</v>
       </c>
       <c r="W184" t="n">
-        <v>0.207208976149559</v>
+        <v>0.2238247394561768</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.882908821105957</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8739243149757385</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1779020875692368</v>
+        <v>8.072135096881539e-05</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8713791370391846</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8791182041168213</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1447934657335281</v>
+        <v>5.989315832266584e-05</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9311480522155762</v>
       </c>
       <c r="V187" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5273074507713318</v>
       </c>
       <c r="W187" t="n">
-        <v>0.01649310439825058</v>
+        <v>0.1630872339010239</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8714909553527832</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5288168787956238</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2493920773267746</v>
+        <v>0.1174255236983299</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8738999366760254</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.5095112919807434</v>
       </c>
       <c r="W189" t="n">
-        <v>0.08225866407155991</v>
+        <v>0.1327790915966034</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8699369430541992</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8818382620811462</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1648998409509659</v>
+        <v>0.000141641401569359</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9405331611633301</v>
       </c>
       <c r="V191" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8829978704452515</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3234799802303314</v>
+        <v>0.0033103097230196</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8693850040435791</v>
       </c>
       <c r="V192" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8670414090156555</v>
       </c>
       <c r="W192" t="n">
-        <v>0.04576163738965988</v>
+        <v>5.492437594512012e-06</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8742671012878418</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.4019207954406738</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1684690862894058</v>
+        <v>0.2231110334396362</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8682360649108887</v>
       </c>
       <c r="V194" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5062493681907654</v>
       </c>
       <c r="W194" t="n">
-        <v>0.04597180336713791</v>
+        <v>0.1310343742370605</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8788471221923828</v>
       </c>
       <c r="V195" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.876509964466095</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1255184561014175</v>
+        <v>5.462306035042275e-06</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8665859699249268</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.3997746407985687</v>
       </c>
       <c r="W196" t="n">
-        <v>0.2015345245599747</v>
+        <v>0.2179128229618073</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8695170879364014</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.5251758694648743</v>
       </c>
       <c r="W197" t="n">
-        <v>0.04631009325385094</v>
+        <v>0.1185708716511726</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8691279888153076</v>
       </c>
       <c r="V198" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3992291390895844</v>
       </c>
       <c r="W198" t="n">
-        <v>0.00455513084307313</v>
+        <v>0.2208049297332764</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8768620491027832</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5094461441040039</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1382068395614624</v>
+        <v>0.1349944472312927</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8661148548126221</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.3992598056793213</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1408011466264725</v>
+        <v>0.2179536372423172</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8832371234893799</v>
       </c>
       <c r="V201" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.860187828540802</v>
       </c>
       <c r="W201" t="n">
-        <v>0.002414010930806398</v>
+        <v>0.0005312699940986931</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5254499912261963</v>
       </c>
       <c r="V202" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5233728885650635</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01162512134760618</v>
+        <v>4.314355464885011e-06</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5625450611114502</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5158166289329529</v>
       </c>
       <c r="W203" t="n">
-        <v>0.0001875873567769304</v>
+        <v>0.002183546312153339</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.6333870887756348</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.526883602142334</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02695569209754467</v>
+        <v>0.01134299300611019</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5219728946685791</v>
       </c>
       <c r="V205" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5261029601097107</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02931483089923859</v>
+        <v>1.705744034552481e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5240390300750732</v>
       </c>
       <c r="V206" t="n">
-        <v>0.35074183344841</v>
+        <v>0.401997834444046</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03003191761672497</v>
+        <v>0.01489405333995819</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5217218399047852</v>
       </c>
       <c r="V207" t="n">
-        <v>0.490907609462738</v>
+        <v>0.528569221496582</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0009495167760178447</v>
+        <v>4.688663466367871e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.576171875</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8646635413169861</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01514662150293589</v>
+        <v>0.08322744071483612</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5206000804901123</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5210187435150146</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01752819120883942</v>
+        <v>1.752787284203805e-07</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5233731269836426</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5181666016578674</v>
       </c>
       <c r="W210" t="n">
-        <v>2.057291567325592e-06</v>
+        <v>2.710790613491554e-05</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5335378646850586</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4009133577346802</v>
       </c>
       <c r="W211" t="n">
-        <v>7.0009715273045e-05</v>
+        <v>0.0175892598927021</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5323429107666016</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8926334977149963</v>
       </c>
       <c r="W212" t="n">
-        <v>0.0237130019813776</v>
+        <v>0.1298093050718307</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5733790397644043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5238776803016663</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01427158527076244</v>
+        <v>0.002450384665280581</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5270500183105469</v>
       </c>
       <c r="V214" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.3992419540882111</v>
       </c>
       <c r="W214" t="n">
-        <v>0.03283092379570007</v>
+        <v>0.01633490063250065</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.526298999786377</v>
       </c>
       <c r="V215" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5187776684761047</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0330582857131958</v>
+        <v>5.657042493112385e-05</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.529810905456543</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.3992511928081512</v>
       </c>
       <c r="W216" t="n">
-        <v>0.001510293688625097</v>
+        <v>0.01704583875834942</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5226759910583496</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8876366019248962</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01695356890559196</v>
+        <v>0.1331962496042252</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5244178771972656</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8666181564331055</v>
       </c>
       <c r="W218" t="n">
-        <v>0.0163174532353878</v>
+        <v>0.1171010285615921</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5259931087493896</v>
       </c>
       <c r="V219" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5180676579475403</v>
       </c>
       <c r="W219" t="n">
-        <v>0.03315437585115433</v>
+        <v>6.2812767282594e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5268080234527588</v>
       </c>
       <c r="V220" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.4003442227840424</v>
       </c>
       <c r="W220" t="n">
-        <v>0.02972636371850967</v>
+        <v>0.01599309220910072</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5223739147186279</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8668186664581299</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0294513925909996</v>
+        <v>0.1186421886086464</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3899061679840088</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5244781374931335</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0001334460830548778</v>
+        <v>0.01810961589217186</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3939900398254395</v>
       </c>
       <c r="V223" t="n">
-        <v>0.975210964679718</v>
+        <v>0.526768684387207</v>
       </c>
       <c r="W223" t="n">
-        <v>0.3378177583217621</v>
+        <v>0.01763016916811466</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4019050598144531</v>
       </c>
       <c r="V224" t="n">
-        <v>0.490329772233963</v>
+        <v>0.8615926504135132</v>
       </c>
       <c r="W224" t="n">
-        <v>0.007818929851055145</v>
+        <v>0.2113126814365387</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4157171249389648</v>
       </c>
       <c r="V225" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8733698129653931</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001902667107060552</v>
+        <v>0.209445983171463</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3983199596405029</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.873866081237793</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06550327688455582</v>
+        <v>0.2261441200971603</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3972129821777344</v>
       </c>
       <c r="V227" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8717943429946899</v>
       </c>
       <c r="W227" t="n">
-        <v>0.3346999287605286</v>
+        <v>0.2252274751663208</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.398716926574707</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8743738532066345</v>
       </c>
       <c r="W228" t="n">
-        <v>0.09031058847904205</v>
+        <v>0.2262495160102844</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4088289737701416</v>
       </c>
       <c r="V229" t="n">
-        <v>0.490833193063736</v>
+        <v>0.873493492603302</v>
       </c>
       <c r="W229" t="n">
-        <v>0.006724691949784756</v>
+        <v>0.2159131169319153</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3947978019714355</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.5087156891822815</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0005192299140617251</v>
+        <v>0.01297728531062603</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3972208499908447</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8713707327842712</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06569132208824158</v>
+        <v>0.2248181104660034</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3976678848266602</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8750934600830078</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0022011564578861</v>
+        <v>0.2279351800680161</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3998022079467773</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.5247482061386108</v>
       </c>
       <c r="W233" t="n">
-        <v>0.01108721364289522</v>
+        <v>0.0156115023419261</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3975799083709717</v>
       </c>
       <c r="V234" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.3998126983642578</v>
       </c>
       <c r="W234" t="n">
-        <v>0.09640844911336899</v>
+        <v>4.98535109727527e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3983488082885742</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.399222195148468</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01147010549902916</v>
+        <v>7.628046319041459e-07</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3972029685974121</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8756386041641235</v>
       </c>
       <c r="W236" t="n">
-        <v>0.004136433359235525</v>
+        <v>0.2289006561040878</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4005980491638184</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5243690609931946</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06387830525636673</v>
+        <v>0.01531926356256008</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3927309513092041</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8787447810173035</v>
       </c>
       <c r="W238" t="n">
-        <v>0.04078936949372292</v>
+        <v>0.236209437251091</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4105041027069092</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.8719091415405273</v>
       </c>
       <c r="W239" t="n">
-        <v>0.006386510096490383</v>
+        <v>0.2128946036100388</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.391334056854248</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3992092907428741</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0006912800599820912</v>
+        <v>6.201930955285206e-05</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3944098949432373</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.3999359607696533</v>
       </c>
       <c r="W241" t="n">
-        <v>0.001903080614283681</v>
+        <v>3.053740510949865e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9507699012756348</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.8867770433425903</v>
       </c>
       <c r="W242" t="n">
-        <v>0.09000547975301743</v>
+        <v>0.004095085896551609</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8842740058898926</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.400893896818161</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1444115042686462</v>
+        <v>0.2336563318967819</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.876032829284668</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.5181002616882324</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2539162337779999</v>
+        <v>0.1281157284975052</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.879694938659668</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.5084343552589417</v>
       </c>
       <c r="W245" t="n">
-        <v>0.05134031549096107</v>
+        <v>0.1378344148397446</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9380500316619873</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.3992320895195007</v>
       </c>
       <c r="W246" t="n">
-        <v>0.05712084099650383</v>
+        <v>0.2903247773647308</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8796579837799072</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.3992352485656738</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1259277015924454</v>
+        <v>0.2308060079813004</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8730499744415283</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.4003903269767761</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1693506091833115</v>
+        <v>0.2234071493148804</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8841078281402588</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.872581422328949</v>
       </c>
       <c r="W249" t="n">
-        <v>0.262307196855545</v>
+        <v>0.0001328580256085843</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9316799640655518</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8730548024177551</v>
       </c>
       <c r="W250" t="n">
-        <v>0.2642431855201721</v>
+        <v>0.003436909522861242</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9111440181732178</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5251273512840271</v>
       </c>
       <c r="W251" t="n">
-        <v>0.04491014778614044</v>
+        <v>0.1490088701248169</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8924710750579834</v>
       </c>
       <c r="V252" t="n">
-        <v>0.503772497177124</v>
+        <v>0.401971310377121</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1510865837335587</v>
+        <v>0.2405900210142136</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.879033088684082</v>
       </c>
       <c r="V253" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.5205765962600708</v>
       </c>
       <c r="W253" t="n">
-        <v>0.0371532216668129</v>
+        <v>0.1284910589456558</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9373199939727783</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.8575822710990906</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1869659870862961</v>
+        <v>0.006358104292303324</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8795151710510254</v>
       </c>
       <c r="V255" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8722958564758301</v>
       </c>
       <c r="W255" t="n">
-        <v>0.0294025894254446</v>
+        <v>5.211850293562748e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8755490779876709</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.5246132016181946</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2096574157476425</v>
+        <v>0.1231559887528419</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8784940242767334</v>
       </c>
       <c r="V257" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4003295600414276</v>
       </c>
       <c r="W257" t="n">
-        <v>0.005453572608530521</v>
+        <v>0.2286412566900253</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9273321628570557</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8708528280258179</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1909852027893066</v>
+        <v>0.00318991532549262</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.9284858703613281</v>
       </c>
       <c r="V259" t="n">
-        <v>0.576347291469574</v>
+        <v>0.4003210961818695</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1240015774965286</v>
+        <v>0.2789579927921295</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>1.038738965988159</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8676120638847351</v>
       </c>
       <c r="W260" t="n">
-        <v>0.3858818411827087</v>
+        <v>0.02928441576659679</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9360530376434326</v>
       </c>
       <c r="V261" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.872624397277832</v>
       </c>
       <c r="W261" t="n">
-        <v>0.00153355801012367</v>
+        <v>0.004023192450404167</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.6115219593048096</v>
       </c>
       <c r="V262" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5172345638275146</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03600088506937027</v>
+        <v>0.008890112861990929</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5627081394195557</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.5081184506416321</v>
       </c>
       <c r="W263" t="n">
-        <v>0.001468875096179545</v>
+        <v>0.002980034099891782</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5431249141693115</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.5175602436065674</v>
       </c>
       <c r="W264" t="n">
-        <v>0.01574395783245564</v>
+        <v>0.0006535523571074009</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5298290252685547</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.3992285430431366</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01260886248201132</v>
+        <v>0.01705648563802242</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.568809986114502</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.4004029035568237</v>
       </c>
       <c r="W266" t="n">
-        <v>0.003965811803936958</v>
+        <v>0.02836094610393047</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5278389453887939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.652911365032196</v>
+        <v>0.401859849691391</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01564311049878597</v>
+        <v>0.01587073318660259</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5306758880615234</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5242721438407898</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001622921321541071</v>
+        <v>4.100794103578664e-05</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.52907395362854</v>
       </c>
       <c r="V269" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.4020102918148041</v>
       </c>
       <c r="W269" t="n">
-        <v>0.03180231153964996</v>
+        <v>0.01614517346024513</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5259721279144287</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8689461946487427</v>
       </c>
       <c r="W270" t="n">
-        <v>0.004212340340018272</v>
+        <v>0.1176312118768692</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5240428447723389</v>
       </c>
       <c r="V271" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5280798673629761</v>
       </c>
       <c r="W271" t="n">
-        <v>0.07738079875707626</v>
+        <v>1.629755206522532e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5553741455078125</v>
       </c>
       <c r="V272" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4003109335899353</v>
       </c>
       <c r="W272" t="n">
-        <v>0.03122455254197121</v>
+        <v>0.02404459938406944</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5266990661621094</v>
       </c>
       <c r="V273" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.8926401734352112</v>
       </c>
       <c r="W273" t="n">
-        <v>0.09702486544847488</v>
+        <v>0.1339128911495209</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5325989723205566</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5222062468528748</v>
       </c>
       <c r="W274" t="n">
-        <v>0.003370415652170777</v>
+        <v>0.0001080087458831258</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5259091854095459</v>
       </c>
       <c r="V275" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8744173049926758</v>
       </c>
       <c r="W275" t="n">
-        <v>0.07539882510900497</v>
+        <v>0.1214579120278358</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5237808227539062</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.4018997251987457</v>
       </c>
       <c r="W276" t="n">
-        <v>0.003883633064106107</v>
+        <v>0.01485500205308199</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5799500942230225</v>
       </c>
       <c r="V277" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5210724472999573</v>
       </c>
       <c r="W277" t="n">
-        <v>0.005408609751611948</v>
+        <v>0.003466577269136906</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.527108907699585</v>
       </c>
       <c r="V278" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8736847043037415</v>
       </c>
       <c r="W278" t="n">
-        <v>0.004344754386693239</v>
+        <v>0.1201147809624672</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5287110805511475</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5291097164154053</v>
       </c>
       <c r="W279" t="n">
-        <v>0.03300745785236359</v>
+        <v>1.589105522725731e-07</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5256500244140625</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8741450905799866</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0004306237678974867</v>
+        <v>0.1214488074183464</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5282859802246094</v>
       </c>
       <c r="V281" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.4022053182125092</v>
       </c>
       <c r="W281" t="n">
-        <v>1.367690401821164e-05</v>
+        <v>0.01589633338153362</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4666299819946289</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8745139241218567</v>
       </c>
       <c r="W282" t="n">
-        <v>0.05110645294189453</v>
+        <v>0.166369304060936</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4045131206512451</v>
       </c>
       <c r="V283" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.3992253243923187</v>
       </c>
       <c r="W283" t="n">
-        <v>0.157668262720108</v>
+        <v>2.796078842948191e-05</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4036800861358643</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5186527967453003</v>
       </c>
       <c r="W284" t="n">
-        <v>0.007595689967274666</v>
+        <v>0.01321872416883707</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4008188247680664</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8677064180374146</v>
       </c>
       <c r="W285" t="n">
-        <v>0.03301434591412544</v>
+        <v>0.2179840207099915</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4026830196380615</v>
       </c>
       <c r="V286" t="n">
-        <v>0.975181519985199</v>
+        <v>0.4009252786636353</v>
       </c>
       <c r="W286" t="n">
-        <v>0.3277545273303986</v>
+        <v>3.089653318966157e-06</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4012391567230225</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8700302243232727</v>
       </c>
       <c r="W287" t="n">
-        <v>0.03062116540968418</v>
+        <v>0.2197650671005249</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4023351669311523</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8672547340393066</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0001631893101148307</v>
+        <v>0.2161502093076706</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4071059226989746</v>
       </c>
       <c r="V289" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.8681660294532776</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0001109573786379769</v>
+        <v>0.2125764191150665</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3972930908203125</v>
       </c>
       <c r="V290" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5089994668960571</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0006163060897961259</v>
+        <v>0.01247831434011459</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4016580581665039</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8803612589836121</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1590489596128464</v>
+        <v>0.2291567474603653</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4093470573425293</v>
       </c>
       <c r="V292" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4001681208610535</v>
       </c>
       <c r="W292" t="n">
-        <v>0.3206378221511841</v>
+        <v>8.425287524005398e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4002349376678467</v>
       </c>
       <c r="V293" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8679871559143066</v>
       </c>
       <c r="W293" t="n">
-        <v>0.331596702337265</v>
+        <v>0.2187921404838562</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3994050025939941</v>
       </c>
       <c r="V294" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.4000134170055389</v>
       </c>
       <c r="W294" t="n">
-        <v>0.03531913831830025</v>
+        <v>3.701680952872266e-07</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4000530242919922</v>
       </c>
       <c r="V295" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.8742060661315918</v>
       </c>
       <c r="W295" t="n">
-        <v>0.3312275111675262</v>
+        <v>0.2248211055994034</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4001438617706299</v>
       </c>
       <c r="V296" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3999246060848236</v>
       </c>
       <c r="W296" t="n">
-        <v>0.01108600851148367</v>
+        <v>4.80730548702013e-08</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3999428749084473</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8861822485923767</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0003127559321001172</v>
+        <v>0.2364287227392197</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4028818607330322</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.3992657065391541</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06261464208364487</v>
+        <v>1.307657112192828e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4017751216888428</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8670098781585693</v>
       </c>
       <c r="W299" t="n">
-        <v>0.002492145402356982</v>
+        <v>0.2164433747529984</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.40077805519104</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5227460861206055</v>
       </c>
       <c r="W300" t="n">
-        <v>0.008035290986299515</v>
+        <v>0.01487620081752539</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4019360542297363</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8770197033882141</v>
       </c>
       <c r="W301" t="n">
-        <v>0.06317019462585449</v>
+        <v>0.2257044762372971</v>
       </c>
     </row>
     <row r="302" spans="1:23">
